--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9dffe1bd10fb67da/Documentos/GitHub/bootcamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{B60D13FC-485D-418F-A580-3D3A64129AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7B108F7-08D2-4783-8147-FB10547FE767}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{B60D13FC-485D-418F-A580-3D3A64129AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ABF7B8C-0F67-412E-A1ED-FED8BE120E43}"/>
   <bookViews>
-    <workbookView xWindow="36690" yWindow="420" windowWidth="21600" windowHeight="11295" xr2:uid="{02C09F26-436C-4023-A801-06819305CC33}"/>
+    <workbookView xWindow="40695" yWindow="1230" windowWidth="21600" windowHeight="11295" xr2:uid="{02C09F26-436C-4023-A801-06819305CC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>d_assistance_area</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>CHECK LIST DW</t>
+  </si>
+  <si>
+    <t>ctrl_security</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -190,6 +193,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1137D94-B7E7-4D3D-9297-D6644EA76451}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +794,17 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F3"/>
